--- a/GL200_TestData_LaunchAutoPost_21B.xlsx
+++ b/GL200_TestData_LaunchAutoPost_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150B8761-377D-4C18-B7F3-0459EE2E3300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988C8625-D3BA-44CF-ADF4-D7D0C4F327B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,18 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>CriteriaSelect</t>
-  </si>
-  <si>
-    <t>URL</t>
   </si>
   <si>
     <t>SubmissionNotes</t>
@@ -78,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,45 +85,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -159,48 +118,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,113 +441,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.1796875" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="31.36328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="E2" s="2">
         <v>20</v>
       </c>
-      <c r="D2" s="3">
+      <c r="F2" s="2">
         <v>30</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="2">
         <v>15</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H2" s="2">
         <v>30</v>
       </c>
-      <c r="G2" s="3">
+      <c r="I2" s="2">
         <v>60</v>
       </c>
-      <c r="H2" s="3">
+      <c r="J2" s="2">
         <v>120</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="6"/>
+      <c r="K2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
